--- a/biology/Botanique/Muhlenbergia/Muhlenbergia.xlsx
+++ b/biology/Botanique/Muhlenbergia/Muhlenbergia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muhlenbergia est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Chloridoideae, originaire d'Amérique et d'Asie.
-Dans une classification phylogénique récente (2015) des Poaceae, le genre Muhlenbergia est classé dans la sous-tribu des Muhlenbergiinae Pilg. (1956), dont c'est l'unique genre, et il englobe les genres suivants assimilés à des synonymes : Aegopogon, Bealia, Blepharoneuron, Chaboissaea, Lycurus, Pereilema, Redfieldia, Schaffnerella, Schedonnardus[1].
+Dans une classification phylogénique récente (2015) des Poaceae, le genre Muhlenbergia est classé dans la sous-tribu des Muhlenbergiinae Pilg. (1956), dont c'est l'unique genre, et il englobe les genres suivants assimilés à des synonymes : Aegopogon, Bealia, Blepharoneuron, Chaboissaea, Lycurus, Pereilema, Redfieldia, Schaffnerella, Schedonnardus.
 Étymologie : le nom générique Muhlenbergia est un hommage au botaniste amateur germano-américain Gotthilf Heinrich Ernst Muhlenberg.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre se compose d'environ 160 espèces. Elles sont présentes à l'état naturel dans les milieux tempérés d'Amérique et d'Asie du sud. Parmi ces espèces se trouvent :
-Selon World Checklist of Selected Plant Families (WCSP)  (18 septembre 2016)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (18 septembre 2016) :
 Muhlenbergia aguascalientensis Y.Herrera &amp; De la Cerda (1995)
 Muhlenbergia alamosae Vasey (1891)
 Muhlenbergia andina (Nutt.) Hitchc. (1920)
